--- a/Data_Course3_cleaned.xlsx
+++ b/Data_Course3_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tirth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E8B4D0-998B-48FE-A702-E573C54DEE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9371F5-ECBF-49CE-864E-95C506AE9E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,21 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>COUNTRY NAME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Literacy Rate %</t>
-  </si>
-  <si>
     <t>Internet Access (%)</t>
-  </si>
-  <si>
-    <t>avg yrs of schooling</t>
   </si>
   <si>
     <t>GDP Per Capita</t>
@@ -77,9 +68,6 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>$51,500</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
@@ -106,14 +94,20 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Average years of Schooling</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Literacy Rate (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -170,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,10 +175,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,35 +399,37 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="20" customWidth="1"/>
+    <col min="1" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -460,21 +453,21 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>99</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>13.3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>52300</v>
       </c>
       <c r="G2" s="2">
@@ -502,21 +495,21 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>74</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>6.4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>2300</v>
       </c>
       <c r="G3" s="3">
@@ -544,21 +537,21 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>62</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>5.9</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2100</v>
       </c>
       <c r="G4" s="2">
@@ -586,21 +579,21 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>93</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>8.1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>8.9</v>
       </c>
       <c r="G5" s="2">
@@ -628,22 +621,22 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>99</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>13.1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
+      <c r="F6" s="4">
+        <v>51500</v>
       </c>
       <c r="G6" s="2">
         <v>84</v>
@@ -670,21 +663,21 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>93</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>7.2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>4500</v>
       </c>
       <c r="G7" s="2">
@@ -712,21 +705,21 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>81</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>6.3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1900</v>
       </c>
       <c r="G8" s="2">
@@ -754,21 +747,21 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>99</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>13.4</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>63000</v>
       </c>
       <c r="G9" s="2">
@@ -796,21 +789,21 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>58</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>34</v>
       </c>
       <c r="E10" s="2">
         <v>5.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1700</v>
       </c>
       <c r="G10" s="2">
@@ -838,21 +831,21 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>99</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>94</v>
       </c>
       <c r="E11" s="2">
         <v>12.9</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>46000</v>
       </c>
       <c r="G11" s="2">
